--- a/T5.1/DatasetMockup.xlsx
+++ b/T5.1/DatasetMockup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bellerofonte/Dropbox/anita/T5.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AC512D-35BD-274E-9178-AD5B34643962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA77384-6F46-454D-A2F1-727D95DA7A15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" activeTab="1" xr2:uid="{FEB80F58-FA6B-644C-943D-094DFCB48D85}"/>
   </bookViews>
@@ -953,7 +953,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:W6"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/T5.1/DatasetMockup.xlsx
+++ b/T5.1/DatasetMockup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bellerofonte/Dropbox/anita/T5.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA77384-6F46-454D-A2F1-727D95DA7A15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B38B7AD-F497-C94C-BA29-EDE08BDD96B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" activeTab="1" xr2:uid="{FEB80F58-FA6B-644C-943D-094DFCB48D85}"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="16380" activeTab="1" xr2:uid="{FEB80F58-FA6B-644C-943D-094DFCB48D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-Case" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE316293-2DC8-1A49-B448-E8E6B0885431}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
